--- a/data/trans_dic/P33B_R1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R1-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08396229864213484</v>
+        <v>0.08507423659011862</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1138216514400903</v>
+        <v>0.1134802237700078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1033573738181089</v>
+        <v>0.1032292959811546</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1381965665875137</v>
+        <v>0.1366957774743128</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1640629341420586</v>
+        <v>0.1653015310921477</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.14080279754945</v>
+        <v>0.1395181723046967</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.1771003478221889</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1416211138539568</v>
+        <v>0.1416211138539567</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08421667009358505</v>
+        <v>0.08492195003563323</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1494640750286165</v>
+        <v>0.1483115236557538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1207271513287445</v>
+        <v>0.1220828641173567</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1397911212210544</v>
+        <v>0.1423168485959846</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2126176669554844</v>
+        <v>0.2132498476045628</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1628701524632861</v>
+        <v>0.1635001287326759</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.2672976692236929</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1956654823987328</v>
+        <v>0.1956654823987327</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1358050690578147</v>
+        <v>0.1352619059904941</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2134681848543144</v>
+        <v>0.2138814250534418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1669845619285543</v>
+        <v>0.1648588382725716</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2044749193288928</v>
+        <v>0.2022034950840512</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3238334936616707</v>
+        <v>0.3303775367307358</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2267392728968193</v>
+        <v>0.224404385247657</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1112888636355964</v>
+        <v>0.1130573490912242</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1655894800538145</v>
+        <v>0.1642032688733308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1409406174452937</v>
+        <v>0.1396219445826359</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1501682317675292</v>
+        <v>0.1502094159532667</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2099546764746223</v>
+        <v>0.2088563573565329</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1693823440183465</v>
+        <v>0.1697307738547158</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1090024652271349</v>
+        <v>0.1056220994523495</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2420114981831571</v>
+        <v>0.2445088495248406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1945199931430862</v>
+        <v>0.1932833994639091</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1626960820810145</v>
+        <v>0.160143708736563</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2925753439809492</v>
+        <v>0.2950130772591961</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2335002324946041</v>
+        <v>0.232332657965405</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.09532708730964004</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.242355964591469</v>
+        <v>0.2423559645914691</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.2101053425756068</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05294242615431378</v>
+        <v>0.04779175071967699</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2164321896703097</v>
+        <v>0.2203868710400444</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1880037954318706</v>
+        <v>0.1867506669932034</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1678361465383208</v>
+        <v>0.1629287792728377</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2686048429687565</v>
+        <v>0.2692091702469934</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2365516642690848</v>
+        <v>0.2381485992828086</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.2144809149396959</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1720127253609145</v>
+        <v>0.1720127253609146</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1165680093618088</v>
+        <v>0.1155001311287317</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2033381935692546</v>
+        <v>0.2041687336491104</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1644098349538682</v>
+        <v>0.1634672330262629</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1402777239000114</v>
+        <v>0.1397963584389496</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2266188501025848</v>
+        <v>0.2267928156907678</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1809798133447046</v>
+        <v>0.1804971630097368</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>46231</v>
+        <v>46843</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>55592</v>
+        <v>55425</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>107391</v>
+        <v>107258</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>76094</v>
+        <v>75267</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>80130</v>
+        <v>80735</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>146298</v>
+        <v>144963</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>40695</v>
+        <v>41035</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>63245</v>
+        <v>62757</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>109422</v>
+        <v>110650</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>67549</v>
+        <v>68769</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>89968</v>
+        <v>90235</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>147618</v>
+        <v>148189</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>64047</v>
+        <v>63791</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39903</v>
+        <v>39981</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>109966</v>
+        <v>108566</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>96433</v>
+        <v>95362</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60534</v>
+        <v>61757</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>149317</v>
+        <v>147779</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>125962</v>
+        <v>127963</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>142607</v>
+        <v>141414</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>280902</v>
+        <v>278274</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>169967</v>
+        <v>170013</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>180815</v>
+        <v>179869</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>337588</v>
+        <v>338283</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>61792</v>
+        <v>59875</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>200900</v>
+        <v>202973</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>271746</v>
+        <v>270019</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>92229</v>
+        <v>90783</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>242875</v>
+        <v>244898</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>326202</v>
+        <v>324571</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>12559</v>
+        <v>11338</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>182730</v>
+        <v>186068</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>203328</v>
+        <v>201973</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>39815</v>
+        <v>38651</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>226778</v>
+        <v>227288</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>255833</v>
+        <v>257560</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>401156</v>
+        <v>397481</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>738952</v>
+        <v>741970</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1163281</v>
+        <v>1156612</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>482751</v>
+        <v>481094</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>823556</v>
+        <v>824188</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1280522</v>
+        <v>1277107</v>
       </c>
     </row>
     <row r="32">
